--- a/com.myxmu.SCADASystem/Configs/TulingWrite.xlsx
+++ b/com.myxmu.SCADASystem/Configs/TulingWrite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="10045"/>
+    <workbookView windowWidth="24685" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Write" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Module</t>
   </si>
@@ -186,14 +186,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0."/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0."/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,13 +208,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,59 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,9 +244,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +287,36 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,23 +337,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +366,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +426,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +456,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,133 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +575,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -600,8 +632,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,47 +655,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -673,157 +664,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -838,10 +831,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,7 +1223,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1323,7 +1316,9 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1356,9 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1396,9 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1437,7 +1436,9 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1476,9 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1516,9 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1556,9 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1589,7 +1596,9 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1636,9 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1676,9 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1703,7 +1716,9 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
@@ -1741,7 +1756,9 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1779,7 +1796,9 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="21.05" customHeight="1" spans="1:26">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
@@ -6997,9 +7016,6 @@
       <c r="Z200" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
